--- a/output/PdexPlanPractitionerRole.xlsx
+++ b/output/PdexPlanPractitionerRole.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="284">
   <si>
     <t>Path</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Mapping: ServD</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
+    <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>PractitionerRole</t>
@@ -146,14 +146,14 @@
     <t>*</t>
   </si>
   <si>
-    <t>Roles/organizations the practitioner is associated with</t>
-  </si>
-  <si>
-    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+    <t>US Core PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>This is basic constraint on PractitionerRole for use in US Core resources.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}pd-1:SHALL have contact information or a reference to an Endpoint {telecom or endpoint}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>ServiceSiteProvider</t>
+  </si>
+  <si>
+    <t>administrative.individual</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -200,7 +203,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -216,10 +219,11 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -238,10 +242,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -267,13 +271,17 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -296,7 +304,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -316,10 +324,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -334,11 +342,7 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -369,7 +373,7 @@
     <t>./Identifiers</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>id</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -379,19 +383,21 @@
 </t>
   </si>
   <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>Default is true. ++If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>STF-7</t>
@@ -400,7 +406,7 @@
     <t>.statusCode</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
+    <t>status</t>
   </si>
   <si>
     <t>PractitionerRole.period</t>
@@ -428,20 +434,20 @@
     <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
   </si>
   <si>
-    <t>FiveWs.done[x]</t>
+    <t>when.done</t>
   </si>
   <si>
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
 </t>
   </si>
   <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
+    <t>Practitioner that is able to provide the defined services for the organation</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organation.</t>
   </si>
   <si>
     <t>.player</t>
@@ -450,7 +456,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
 </t>
   </si>
   <si>
@@ -476,19 +482,16 @@
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
   </si>
   <si>
-    <t>A person may have more than one role.</t>
+    <t>A person may have more than one role. At least one role is required.</t>
   </si>
   <si>
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role a person plays representing an organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+    <t>Provider role codes consisting of NUCC Health Care Provider Taxonomy Code Set for providers.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -506,10 +509,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>Specific specialty associated with the agency.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>Provider specialty codes consist of NUCC Health Care Provider Taxonomy Code Set for providers.</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -524,7 +524,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-location]]}
 </t>
   </si>
   <si>
@@ -540,7 +540,7 @@
     <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)&lt;br/&gt; However these are accessed via the Site.ServiceSite.ServiceSiteProvider record. (The Site has the location)</t>
   </si>
   <si>
-    <t>FiveWs.where[x]</t>
+    <t>where</t>
   </si>
   <si>
     <t>PractitionerRole.healthcareService</t>
@@ -581,6 +581,175 @@
     <t>.telecom</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old contact etc.for a current/permanent one. Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. Contacts are ranked with lower values coming before higher values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
@@ -591,13 +760,13 @@
     <t>Times the Service Site is available</t>
   </si>
   <si>
-    <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
+    <t>A collection of times that the Service Site is available.</t>
   </si>
   <si>
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -607,29 +776,7 @@
     <t>PractitionerRole.availableTime.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.availableTime.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -639,11 +786,7 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -658,13 +801,10 @@
     <t>Indicates which days of the week are available between the start and end Times.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The days of the week.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.allDay</t>
@@ -707,7 +847,7 @@
     <t>Not available during this time due to provided reason</t>
   </si>
   <si>
-    <t>The practitioner is not available or performing this role during this period of time due to the provided reason.</t>
+    <t>The HealthcareService is not available during this period of time due to the provided reason.</t>
   </si>
   <si>
     <t>PractitionerRole.notAvailable.id</t>
@@ -731,7 +871,7 @@
     <t>PractitionerRole.notAvailable.during</t>
   </si>
   <si>
-    <t>Service not available from this date</t>
+    <t>Service not availablefrom this date</t>
   </si>
   <si>
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
@@ -910,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -933,7 +1073,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -942,11 +1082,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="87.26953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
@@ -957,7 +1097,7 @@
     <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="23.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1185,12 +1325,12 @@
         <v>48</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1201,7 +1341,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -1210,19 +1350,19 @@
         <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1272,13 +1412,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1301,7 +1441,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1312,7 +1452,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>40</v>
@@ -1321,16 +1461,16 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1381,13 +1521,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1410,7 +1550,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1421,28 +1561,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1492,13 +1632,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -1521,7 +1661,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1532,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1544,16 +1684,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1579,13 +1719,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1603,13 +1743,13 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1632,18 +1772,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1655,16 +1795,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1714,16 +1854,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -1732,7 +1872,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1743,11 +1883,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1766,16 +1906,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1825,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1843,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1854,11 +1994,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1877,16 +2017,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1936,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1954,7 +2094,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1965,11 +2105,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1982,26 +2122,24 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2049,7 +2187,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2067,7 +2205,7 @@
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2078,7 +2216,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2098,20 +2236,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2160,7 +2298,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2175,21 +2313,21 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2200,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2209,80 +2347,78 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2290,21 +2426,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2315,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2324,20 +2460,20 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2386,13 +2522,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2401,21 +2537,21 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2426,25 +2562,25 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2495,13 +2631,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2513,7 +2649,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2522,9 +2658,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2535,25 +2671,25 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2604,13 +2740,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2622,7 +2758,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2631,9 +2767,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2644,31 +2780,31 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2693,7 +2829,7 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>150</v>
@@ -2717,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2738,13 +2874,13 @@
         <v>153</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>154</v>
       </c>
@@ -2757,19 +2893,19 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>155</v>
@@ -2802,13 +2938,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>157</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -2841,21 +2977,21 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2869,22 +3005,22 @@
         <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2935,7 +3071,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2953,18 +3089,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2987,13 +3123,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3044,7 +3180,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3059,21 +3195,21 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3087,26 +3223,26 @@
         <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3155,7 +3291,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3173,7 +3309,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3184,7 +3320,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3195,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3207,17 +3343,15 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3266,25 +3400,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3295,18 +3429,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3318,15 +3452,17 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3363,81 +3499,79 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3462,13 +3596,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3486,71 +3620,71 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3599,13 +3733,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3614,13 +3748,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3628,7 +3762,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3639,28 +3773,32 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3684,13 +3822,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3708,13 +3846,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3723,13 +3861,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3737,7 +3875,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3748,7 +3886,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3757,18 +3895,20 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3817,13 +3957,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -3832,10 +3972,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3846,7 +3986,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3857,7 +3997,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -3866,20 +4006,18 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3928,13 +4066,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -3943,13 +4081,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -3957,7 +4095,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3968,7 +4106,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -3980,16 +4118,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4039,25 +4177,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4068,7 +4206,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4079,7 +4217,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4091,13 +4229,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4148,25 +4286,25 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4177,18 +4315,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4200,15 +4338,17 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4257,13 +4397,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4275,7 +4415,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4286,11 +4426,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4303,22 +4443,22 @@
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4368,7 +4508,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4386,7 +4526,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4397,11 +4537,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4414,26 +4554,22 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4457,13 +4593,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4481,7 +4617,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4499,7 +4635,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4510,7 +4646,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4518,10 +4654,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4533,13 +4669,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4590,13 +4726,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4608,7 +4744,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4619,7 +4755,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4630,7 +4766,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4642,15 +4778,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4699,13 +4837,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4717,7 +4855,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4866,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4739,7 +4877,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4751,15 +4889,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4808,13 +4948,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4826,7 +4966,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4837,7 +4977,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4860,18 +5000,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -4919,7 +5057,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -4931,23 +5069,792 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4957,7 +5864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
